--- a/inputs_outputs.xlsx
+++ b/inputs_outputs.xlsx
@@ -37,13 +37,13 @@
     <t xml:space="preserve">מיקום לקוח</t>
   </si>
   <si>
-    <t xml:space="preserve">C:\Users\dpere\Documents\JTMT\Projects\תחזיות_דמוגרפיות\קבצי עבודה\142_מתחם_אנגל\בהת</t>
+    <t xml:space="preserve">D:\Projects\תחזיות_דמוגרפיות\קבצי עבודה\142_מתחם_אנגל\בהת</t>
   </si>
   <si>
     <t xml:space="preserve">שם תרחיש (forecast_version)</t>
   </si>
   <si>
-    <t xml:space="preserve">with_project_50_precent_bld</t>
+    <t xml:space="preserve">without_project</t>
   </si>
   <si>
     <t xml:space="preserve">v_date</t>
@@ -132,16 +132,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -164,94 +168,94 @@
   </sheetPr>
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="137.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="34.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="81.25"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="n">
-        <v>230818</v>
+      <c r="B5" s="2" t="n">
+        <v>240129</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="1"/>
+      <c r="B12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="1"/>
+      <c r="B13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="1"/>
+      <c r="B14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="1"/>
+      <c r="B15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="1"/>
+      <c r="B16" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/inputs_outputs.xlsx
+++ b/inputs_outputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\Data\Forecast\Tools\creat_forecast_ad_hoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{297D9CD5-C73C-4DF4-BE33-CAF00B2CDBA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE7DC40-6CA6-46A7-9146-41D97EA7DBAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8928" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8928" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -415,7 +415,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
